--- a/ExportExcel/Delete Majors Test.xlsx
+++ b/ExportExcel/Delete Majors Test.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Test Name</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -29,10 +35,13 @@
     <t>testDeleteSuccess</t>
   </si>
   <si>
+    <t>TC_DM_01</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>1080 ms</t>
+    <t>2920 ms</t>
   </si>
   <si>
     <t/>
@@ -41,7 +50,10 @@
     <t>testDeleteFail</t>
   </si>
   <si>
-    <t>1631 ms</t>
+    <t>TC_DM_02</t>
+  </si>
+  <si>
+    <t>4028 ms</t>
   </si>
 </sst>
 </file>
@@ -58,12 +70,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,24 +110,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.4140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -111,33 +147,51 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>7</v>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel/Delete Majors Test.xlsx
+++ b/ExportExcel/Delete Majors Test.xlsx
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2920 ms</t>
+    <t>1522 ms</t>
   </si>
   <si>
     <t/>
@@ -53,7 +53,7 @@
     <t>TC_DM_02</t>
   </si>
   <si>
-    <t>4028 ms</t>
+    <t>2228 ms</t>
   </si>
 </sst>
 </file>

--- a/ExportExcel/Delete Majors Test.xlsx
+++ b/ExportExcel/Delete Majors Test.xlsx
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>1522 ms</t>
+    <t>1927 ms</t>
   </si>
   <si>
     <t/>
@@ -53,7 +53,7 @@
     <t>TC_DM_02</t>
   </si>
   <si>
-    <t>2228 ms</t>
+    <t>4693 ms</t>
   </si>
 </sst>
 </file>
